--- a/public/docs/Excel data/TwoThousands.xlsx
+++ b/public/docs/Excel data/TwoThousands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195CF26A-3B51-4CBF-9FB9-D220795B737B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3628A73B-11DD-482F-B564-4261742700B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11503" uniqueCount="4862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11593" uniqueCount="4952">
   <si>
     <t>з</t>
   </si>
@@ -14628,13 +14628,283 @@
   </si>
   <si>
     <t>🪧 10. HELP WANTED / NOW HIRING</t>
+  </si>
+  <si>
+    <t>//LESSON 10</t>
+  </si>
+  <si>
+    <t>//LESSON 11</t>
+  </si>
+  <si>
+    <t>//LESSON 12</t>
+  </si>
+  <si>
+    <t>//LESSON 13</t>
+  </si>
+  <si>
+    <t>//LESSON 14</t>
+  </si>
+  <si>
+    <t>//LESSON 15</t>
+  </si>
+  <si>
+    <t>//LESSON 16</t>
+  </si>
+  <si>
+    <t>//LESSON 17</t>
+  </si>
+  <si>
+    <t>//LESSON 18</t>
+  </si>
+  <si>
+    <t>//LESSON 19</t>
+  </si>
+  <si>
+    <t>//LESSON 20</t>
+  </si>
+  <si>
+    <t>//LESSON 21</t>
+  </si>
+  <si>
+    <t>//LESSON 22</t>
+  </si>
+  <si>
+    <t>//LESSON 23</t>
+  </si>
+  <si>
+    <t>//LESSON 24</t>
+  </si>
+  <si>
+    <t>//LESSON 25</t>
+  </si>
+  <si>
+    <t>//LESSON 26</t>
+  </si>
+  <si>
+    <t>//LESSON 27</t>
+  </si>
+  <si>
+    <t>//LESSON 28</t>
+  </si>
+  <si>
+    <t>//LESSON 30</t>
+  </si>
+  <si>
+    <t>Books &amp; Reading – Talk about favorite books, authors, or reading habits.</t>
+  </si>
+  <si>
+    <t>Pets &amp; Animals – Discuss experiences with pets, favorite animals, or wildlife encounters.</t>
+  </si>
+  <si>
+    <t>Environment &amp; Nature – Share views on environmental issues, nature walks, or sustainable living.</t>
+  </si>
+  <si>
+    <t>Hometown &amp; Neighborhood – Describe where you live or grew up, and what makes it special.</t>
+  </si>
+  <si>
+    <t>Languages &amp; Communication – Talk about languages you know, want to learn, or language barriers.</t>
+  </si>
+  <si>
+    <t>Fashion &amp; Style – Discuss clothing preferences, trends, and personal style.</t>
+  </si>
+  <si>
+    <t>Celebrations &amp; Festivals – Share traditions around birthdays, holidays, and national celebrations.</t>
+  </si>
+  <si>
+    <t>Art &amp; Creativity – Talk about drawing, painting, design, or any creative projects you enjoy.</t>
+  </si>
+  <si>
+    <t>Transportation &amp; Commuting – Describe how you get around and experiences with travel or commuting.</t>
+  </si>
+  <si>
+    <t>Challenges &amp; Achievements – Reflect on personal obstacles and proud accomplishments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introductions &amp; Personal Information </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about yourself, your background, and your interests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Routines </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe your typical day from morning to night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbies &amp; Free Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss your favorite activities, sports, or creative pursuits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel &amp; Holidays </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Share experiences about past trips or dream destinations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food &amp; Cooking </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about favorite dishes, recipes, and eating habits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family &amp; Friends </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe your relationships and social life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School &amp; Education </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss school experiences, favorite subjects, and learning methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work &amp; Careers </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about jobs, career goals, and workplace culture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping &amp; Money </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss buying habits, budgeting, and favorite stores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology &amp; Social Media </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about how you use technology and its effects on daily life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movies &amp; TV Shows </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Share opinions on films, series, and actors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music &amp; Entertainment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about favorite musicians, concerts, and music genres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports &amp; Exercise </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss favorite sports, fitness routines, and staying healthy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">News &amp; Current Events </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Share thoughts on recent world events and local news.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreams &amp; Future Plans </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about life goals, ambitions, and hopes for the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultural Differences </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss traditions, customs, and cultural experiences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather &amp; Seasons </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about favorite seasons and how weather affects daily life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Wellness </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss habits for staying healthy and dealing with stress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Experiences &amp; Stories </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Share interesting life events or funny stories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If You Could... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Imagine different scenarios like "If you could travel anywhere, where would you go?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Books &amp; Reading </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about favorite books, authors, or reading habits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pets &amp; Animals </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss experiences with pets, favorite animals, or wildlife encounters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment &amp; Nature </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Share views on environmental issues, nature walks, or sustainable living.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hometown &amp; Neighborhood </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe where you live or grew up, and what makes it special.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages &amp; Communication </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about languages you know, want to learn, or language barriers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fashion &amp; Style </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discuss clothing preferences, trends, and personal style.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celebrations &amp; Festivals </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Share traditions around birthdays, holidays, and national celebrations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art &amp; Creativity </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talk about drawing, painting, design, or any creative projects you enjoy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation &amp; Commuting </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe how you get around and experiences with travel or commuting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenges &amp; Achievements </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reflect on personal obstacles and proud accomplishments.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14668,6 +14938,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -14720,7 +14996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -14736,6 +15012,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72071,184 +72351,508 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E59B5-B434-461C-8003-542FC86AE77F}">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="98.33203125" customWidth="1"/>
+    <col min="4" max="4" width="77.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>4773</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>4774</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>4892</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4893</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>4775</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>4894</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>4776</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>4896</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4897</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>4777</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>4898</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4899</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>4778</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>4900</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4901</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>4779</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>4902</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4903</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>4780</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>4904</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4905</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>4781</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>4906</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4907</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>4782</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>4908</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4909</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>4783</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>4910</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4911</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>4784</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>4912</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4913</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>4785</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>4914</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4915</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>4786</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>4916</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4917</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>4787</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>4918</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4919</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>4788</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>4920</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4921</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>4789</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>4922</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>4790</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>4924</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4925</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>4791</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>4926</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4927</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>4792</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>4928</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4929</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>4793</v>
       </c>
+      <c r="D22" t="s">
+        <v>4930</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4931</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>4882</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>4932</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4933</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>4883</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>4934</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4935</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>4884</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>4936</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>4885</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>4938</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>4886</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>4940</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>4887</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>4942</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>4888</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>4944</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>4889</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>4946</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>4890</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>4948</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>4891</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>4950</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4951</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -72644,7 +73248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F62D7B-A016-4862-8D3B-A22E04A436CB}">
   <dimension ref="B2:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/public/docs/Excel data/TwoThousands.xlsx
+++ b/public/docs/Excel data/TwoThousands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3628A73B-11DD-482F-B564-4261742700B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADAEFB-44C6-47ED-A7DF-20E121646F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
+    <workbookView xWindow="11016" yWindow="384" windowWidth="11760" windowHeight="8880" activeTab="4" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11593" uniqueCount="4952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11653" uniqueCount="5012">
   <si>
     <t>з</t>
   </si>
@@ -14898,6 +14898,186 @@
   </si>
   <si>
     <t xml:space="preserve"> Reflect on personal obstacles and proud accomplishments.</t>
+  </si>
+  <si>
+    <t>// LESSON 1</t>
+  </si>
+  <si>
+    <t>// Introductions &amp; Personal Information</t>
+  </si>
+  <si>
+    <t>// LESSON 2</t>
+  </si>
+  <si>
+    <t>// Daily Routines</t>
+  </si>
+  <si>
+    <t>// LESSON 3</t>
+  </si>
+  <si>
+    <t>// Hobbies &amp; Free Time</t>
+  </si>
+  <si>
+    <t>// LESSON 4</t>
+  </si>
+  <si>
+    <t>// Travel &amp; Holidays</t>
+  </si>
+  <si>
+    <t>// LESSON 5</t>
+  </si>
+  <si>
+    <t>// Food &amp; Cooking</t>
+  </si>
+  <si>
+    <t>// LESSON 6</t>
+  </si>
+  <si>
+    <t>// Family &amp; Friends</t>
+  </si>
+  <si>
+    <t>// LESSON 7</t>
+  </si>
+  <si>
+    <t>// School &amp; Education</t>
+  </si>
+  <si>
+    <t>// LESSON 8</t>
+  </si>
+  <si>
+    <t>// Work &amp; Careers</t>
+  </si>
+  <si>
+    <t>// LESSON 9</t>
+  </si>
+  <si>
+    <t>// Shopping &amp; Money</t>
+  </si>
+  <si>
+    <t>// LESSON 10</t>
+  </si>
+  <si>
+    <t>// Technology &amp; Social Media</t>
+  </si>
+  <si>
+    <t>// LESSON 11</t>
+  </si>
+  <si>
+    <t>// Movies &amp; TV Shows</t>
+  </si>
+  <si>
+    <t>// LESSON 12</t>
+  </si>
+  <si>
+    <t>// Music &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>// LESSON 13</t>
+  </si>
+  <si>
+    <t>// Sports &amp; Exercise</t>
+  </si>
+  <si>
+    <t>// LESSON 14</t>
+  </si>
+  <si>
+    <t>// News &amp; Current Events</t>
+  </si>
+  <si>
+    <t>// LESSON 15</t>
+  </si>
+  <si>
+    <t>// Dreams &amp; Future Plans</t>
+  </si>
+  <si>
+    <t>// LESSON 16</t>
+  </si>
+  <si>
+    <t>// Cultural Differences</t>
+  </si>
+  <si>
+    <t>// LESSON 17</t>
+  </si>
+  <si>
+    <t>// Weather &amp; Seasons</t>
+  </si>
+  <si>
+    <t>// LESSON 18</t>
+  </si>
+  <si>
+    <t>// Health &amp; Wellness</t>
+  </si>
+  <si>
+    <t>// LESSON 19</t>
+  </si>
+  <si>
+    <t>// Personal Experiences &amp; Stories</t>
+  </si>
+  <si>
+    <t>// LESSON 20</t>
+  </si>
+  <si>
+    <t>// If You Could...</t>
+  </si>
+  <si>
+    <t>// LESSON 21</t>
+  </si>
+  <si>
+    <t>// Books &amp; Reading</t>
+  </si>
+  <si>
+    <t>// LESSON 22</t>
+  </si>
+  <si>
+    <t>// Pets &amp; Animals</t>
+  </si>
+  <si>
+    <t>// LESSON 23</t>
+  </si>
+  <si>
+    <t>// Environment &amp; Nature</t>
+  </si>
+  <si>
+    <t>// LESSON 24</t>
+  </si>
+  <si>
+    <t>// Hometown &amp; Neighborhood</t>
+  </si>
+  <si>
+    <t>// LESSON 25</t>
+  </si>
+  <si>
+    <t>// Languages &amp; Communication</t>
+  </si>
+  <si>
+    <t>// LESSON 26</t>
+  </si>
+  <si>
+    <t>// Fashion &amp; Style</t>
+  </si>
+  <si>
+    <t>// LESSON 27</t>
+  </si>
+  <si>
+    <t>// Celebrations &amp; Festivals</t>
+  </si>
+  <si>
+    <t>// LESSON 28</t>
+  </si>
+  <si>
+    <t>// Art &amp; Creativity</t>
+  </si>
+  <si>
+    <t>// LESSON 29</t>
+  </si>
+  <si>
+    <t>// Transportation &amp; Commuting</t>
+  </si>
+  <si>
+    <t>// LESSON 30</t>
+  </si>
+  <si>
+    <t>// Challenges &amp; Achievements</t>
   </si>
 </sst>
 </file>
@@ -14996,7 +15176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -15015,7 +15195,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72351,25 +72530,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E59B5-B434-461C-8003-542FC86AE77F}">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="98.33203125" customWidth="1"/>
-    <col min="4" max="4" width="77.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52.77734375" customWidth="1"/>
+    <col min="7" max="7" width="52.21875" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>4773</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -72382,8 +72563,11 @@
       <c r="E3" t="s">
         <v>4893</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -72396,8 +72580,11 @@
       <c r="E4" t="s">
         <v>4895</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -72410,11 +72597,11 @@
       <c r="E5" t="s">
         <v>4897</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>4862</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -72427,11 +72614,14 @@
       <c r="E6" t="s">
         <v>4899</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" t="s">
+        <v>4954</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>4863</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -72444,11 +72634,14 @@
       <c r="E7" t="s">
         <v>4901</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" t="s">
+        <v>4955</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>4864</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -72461,11 +72654,11 @@
       <c r="E8" t="s">
         <v>4903</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>4865</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -72478,11 +72671,14 @@
       <c r="E9" t="s">
         <v>4905</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" t="s">
+        <v>4956</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>4866</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -72495,11 +72691,14 @@
       <c r="E10" t="s">
         <v>4907</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" t="s">
+        <v>4957</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>4867</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -72512,11 +72711,11 @@
       <c r="E11" t="s">
         <v>4909</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>4868</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -72529,11 +72728,17 @@
       <c r="E12" t="s">
         <v>4911</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" t="s">
+        <v>4958</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>4869</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -72546,11 +72751,14 @@
       <c r="E13" t="s">
         <v>4913</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" t="s">
+        <v>4959</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>4870</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -72563,11 +72771,11 @@
       <c r="E14" t="s">
         <v>4915</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>4871</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
@@ -72580,11 +72788,14 @@
       <c r="E15" t="s">
         <v>4917</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" t="s">
+        <v>4960</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>4872</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
@@ -72597,11 +72808,14 @@
       <c r="E16" t="s">
         <v>4919</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" t="s">
+        <v>4961</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>4873</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
@@ -72614,11 +72828,11 @@
       <c r="E17" t="s">
         <v>4921</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>4874</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
@@ -72631,11 +72845,14 @@
       <c r="E18" t="s">
         <v>4923</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" t="s">
+        <v>4962</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>4875</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>17</v>
       </c>
@@ -72648,11 +72865,14 @@
       <c r="E19" t="s">
         <v>4925</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" t="s">
+        <v>4963</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>4876</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
@@ -72665,11 +72885,11 @@
       <c r="E20" t="s">
         <v>4927</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>4877</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19</v>
       </c>
@@ -72682,11 +72902,14 @@
       <c r="E21" t="s">
         <v>4929</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" t="s">
+        <v>4964</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>4878</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -72699,154 +72922,375 @@
       <c r="E22" t="s">
         <v>4931</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" t="s">
+        <v>4965</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>4879</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" t="s">
         <v>4882</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" t="s">
         <v>4932</v>
       </c>
       <c r="E23" t="s">
         <v>4933</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>4880</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" t="s">
         <v>4883</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" t="s">
         <v>4934</v>
       </c>
       <c r="E24" t="s">
         <v>4935</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" t="s">
+        <v>4966</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>4881</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" t="s">
         <v>4884</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" t="s">
         <v>4936</v>
       </c>
       <c r="E25" t="s">
         <v>4937</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s">
         <v>4885</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>4938</v>
       </c>
       <c r="E26" t="s">
         <v>4939</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" t="s">
         <v>4886</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>4940</v>
       </c>
       <c r="E27" t="s">
         <v>4941</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" t="s">
         <v>4887</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>4942</v>
       </c>
       <c r="E28" t="s">
         <v>4943</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" t="s">
         <v>4888</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" t="s">
         <v>4944</v>
       </c>
       <c r="E29" t="s">
         <v>4945</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" t="s">
         <v>4889</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" t="s">
         <v>4946</v>
       </c>
       <c r="E30" t="s">
         <v>4947</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" t="s">
         <v>4890</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" t="s">
         <v>4948</v>
       </c>
       <c r="E31" t="s">
         <v>4949</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" t="s">
         <v>4891</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" t="s">
         <v>4950</v>
       </c>
       <c r="E32" t="s">
         <v>4951</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>4976</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>4989</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>5011</v>
       </c>
     </row>
   </sheetData>

--- a/public/docs/Excel data/TwoThousands.xlsx
+++ b/public/docs/Excel data/TwoThousands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42ADAEFB-44C6-47ED-A7DF-20E121646F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9366555-173A-472F-B5DA-DBB4F822058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11016" yWindow="384" windowWidth="11760" windowHeight="8880" activeTab="4" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="4" r:id="rId1"/>
@@ -71843,8 +71843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2065B795-6495-421C-8C31-54BC300F0CEC}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -72532,7 +72532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E59B5-B434-461C-8003-542FC86AE77F}">
   <dimension ref="B2:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+    <sheetView topLeftCell="F2" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/public/docs/Excel data/TwoThousands.xlsx
+++ b/public/docs/Excel data/TwoThousands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9366555-173A-472F-B5DA-DBB4F822058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1B35F5-464F-47B4-BEE9-614890EE4ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
+    <workbookView xWindow="804" yWindow="756" windowWidth="21600" windowHeight="11232" activeTab="7" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Topics" sheetId="9" r:id="rId5"/>
     <sheet name="LessonStructure" sheetId="10" r:id="rId6"/>
     <sheet name="ReadingSigns" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11653" uniqueCount="5012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11716" uniqueCount="5057">
   <si>
     <t>з</t>
   </si>
@@ -15078,13 +15079,252 @@
   </si>
   <si>
     <t>// Challenges &amp; Achievements</t>
+  </si>
+  <si>
+    <t>Іменник (однина)</t>
+  </si>
+  <si>
+    <t>Множина</t>
+  </si>
+  <si>
+    <t>Переклад</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>чоловік – чоловіки</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>жінка – жінки</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>дитина – діти</t>
+  </si>
+  <si>
+    <t>teeth</t>
+  </si>
+  <si>
+    <t>зуб – зуби</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>ступня – ступні</t>
+  </si>
+  <si>
+    <t>mice</t>
+  </si>
+  <si>
+    <t>миша – миші</t>
+  </si>
+  <si>
+    <t>goose</t>
+  </si>
+  <si>
+    <t>geese</t>
+  </si>
+  <si>
+    <t>гуска – гуски</t>
+  </si>
+  <si>
+    <t>особа – люди</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>oxen</t>
+  </si>
+  <si>
+    <t>віл – воли</t>
+  </si>
+  <si>
+    <t>louse</t>
+  </si>
+  <si>
+    <t>lice</t>
+  </si>
+  <si>
+    <t>воша – воші</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">вівця – вівці </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(незмінне)</t>
+    </r>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">олень – олені </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(незмінне)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">риба – риби </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(незмінне)</t>
+    </r>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">літак – літаки </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(незмінне)</t>
+    </r>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">вид – види </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(незмінне)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">серія – серії </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(незмінне)</t>
+    </r>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">лосось – лососі </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(незмінне)</t>
+    </r>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">засіб – засоби </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(незмінне)</t>
+    </r>
+  </si>
+  <si>
+    <t>cactus</t>
+  </si>
+  <si>
+    <t>cacti</t>
+  </si>
+  <si>
+    <t>кактус – кактуси</t>
+  </si>
+  <si>
+    <t>phenomenon</t>
+  </si>
+  <si>
+    <t>phenomena</t>
+  </si>
+  <si>
+    <t>явище – явища</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15124,6 +15364,14 @@
       <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -15176,7 +15424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -15194,6 +15442,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -71843,7 +72097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2065B795-6495-421C-8C31-54BC300F0CEC}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -73890,4 +74144,253 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AC0207-518E-48AB-8F20-B65106DCAA7A}">
+  <dimension ref="B2:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" activeCellId="3" sqref="B3:B9 B10 B13 B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="34.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>5012</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5013</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>5015</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5017</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5019</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>5021</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5023</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>5025</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>5027</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>5028</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>5032</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>5034</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>5035</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>5037</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>5037</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>5038</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>5039</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>5039</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>5042</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>5042</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>5044</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>5044</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>5047</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>5047</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>5049</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>5051</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>5052</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>5054</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>5055</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/docs/Excel data/TwoThousands.xlsx
+++ b/public/docs/Excel data/TwoThousands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1B35F5-464F-47B4-BEE9-614890EE4ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F25EA8-B2FB-4C88-A147-B4734681B436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="804" yWindow="756" windowWidth="21600" windowHeight="11232" activeTab="7" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
+    <workbookView xWindow="804" yWindow="756" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="4" r:id="rId1"/>
@@ -25100,8 +25100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA00D292-BF8B-4F4B-B7D2-0977FA8E2544}">
   <dimension ref="A1:F2192"/>
   <sheetViews>
-    <sheetView topLeftCell="A1983" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1988" sqref="G1988"/>
+    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B508" sqref="B508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74150,7 +74150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AC0207-518E-48AB-8F20-B65106DCAA7A}">
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" activeCellId="3" sqref="B3:B9 B10 B13 B15"/>
     </sheetView>
   </sheetViews>

--- a/public/docs/Excel data/TwoThousands.xlsx
+++ b/public/docs/Excel data/TwoThousands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F25EA8-B2FB-4C88-A147-B4734681B436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F3DCF3-DB22-4F09-AFE7-E6AC90A59E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="804" yWindow="756" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11232" activeTab="7" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11716" uniqueCount="5057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11800" uniqueCount="5096">
   <si>
     <t>з</t>
   </si>
@@ -15318,6 +15318,123 @@
   </si>
   <si>
     <t>явище – явища</t>
+  </si>
+  <si>
+    <t>Infinitive (V1)</t>
+  </si>
+  <si>
+    <t>Past Simple (V2)</t>
+  </si>
+  <si>
+    <t>Past Participle (V3)</t>
+  </si>
+  <si>
+    <t>was/were</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>іти</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>got/gotten (AmE)</t>
+  </si>
+  <si>
+    <t>отримувати</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>робити, створювати</t>
+  </si>
+  <si>
+    <t>knew</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>брати</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>бачити</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>приходити</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>знаходити</t>
+  </si>
+  <si>
+    <t>gave</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>давати</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>became</t>
+  </si>
+  <si>
+    <t>ставати</t>
+  </si>
+  <si>
+    <t>showed</t>
+  </si>
+  <si>
+    <t>shown</t>
+  </si>
+  <si>
+    <t>показувати</t>
+  </si>
+  <si>
+    <t>залишати</t>
+  </si>
+  <si>
+    <t>felt</t>
+  </si>
+  <si>
+    <t>brought</t>
+  </si>
+  <si>
+    <t>приносити</t>
   </si>
 </sst>
 </file>
@@ -25100,7 +25217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA00D292-BF8B-4F4B-B7D2-0977FA8E2544}">
   <dimension ref="A1:F2192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A493" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B508" sqref="B508"/>
     </sheetView>
   </sheetViews>
@@ -74148,10 +74265,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AC0207-518E-48AB-8F20-B65106DCAA7A}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" activeCellId="3" sqref="B3:B9 B10 B13 B15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74324,7 +74441,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>5044</v>
       </c>
@@ -74335,7 +74452,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>2713</v>
       </c>
@@ -74346,7 +74463,7 @@
         <v>5046</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>5047</v>
       </c>
@@ -74357,7 +74474,7 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>5049</v>
       </c>
@@ -74368,7 +74485,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>5051</v>
       </c>
@@ -74379,7 +74496,7 @@
         <v>5053</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>5054</v>
       </c>
@@ -74388,6 +74505,300 @@
       </c>
       <c r="D22" s="11" t="s">
         <v>5056</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>5057</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>5058</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>5059</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>5060</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>5061</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>5062</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>5063</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>5063</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>5064</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>5065</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>5067</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>5068</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>5070</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>5070</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>5072</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>5073</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>5074</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>5076</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>5077</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>5079</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="11" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>5081</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>5081</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>5083</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>5084</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="11" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>5086</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>5086</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>5087</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="11" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>5089</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>5090</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>2545</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="11" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>5093</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>5093</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="11" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>5094</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>5094</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>5095</v>
       </c>
     </row>
   </sheetData>

--- a/public/docs/Excel data/TwoThousands.xlsx
+++ b/public/docs/Excel data/TwoThousands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F3DCF3-DB22-4F09-AFE7-E6AC90A59E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C9A8B-C1E5-4958-9692-4B78DAE6202E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11232" activeTab="7" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{3025596F-8F86-4685-8931-8FCF7E89A1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="LessonStructure" sheetId="10" r:id="rId6"/>
     <sheet name="ReadingSigns" sheetId="11" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
+    <sheet name="One Thousand" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11800" uniqueCount="5096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12978" uniqueCount="5238">
   <si>
     <t>з</t>
   </si>
@@ -15435,6 +15436,432 @@
   </si>
   <si>
     <t>приносити</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>mile</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>began</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>pose</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>numeral</t>
+  </si>
+  <si>
+    <t>heard</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>vowel</t>
+  </si>
+  <si>
+    <t>toward</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>govern</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>stood</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>multiply</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>stead</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>equate</t>
+  </si>
+  <si>
+    <t>tire</t>
+  </si>
+  <si>
+    <t>distant</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>syllable</t>
+  </si>
+  <si>
+    <t>perhaps</t>
+  </si>
+  <si>
+    <t>probable</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>lone</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>kept</t>
+  </si>
+  <si>
+    <t>clothe</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>paragraph</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>silent</t>
+  </si>
+  <si>
+    <t>excite</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>observe</t>
+  </si>
+  <si>
+    <t>consonant</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>climb</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>crease</t>
+  </si>
+  <si>
+    <t>melody</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>shout</t>
+  </si>
+  <si>
+    <t>wrote</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>grew</t>
+  </si>
+  <si>
+    <t>cent</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>gentle</t>
+  </si>
+  <si>
+    <t>captain</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>locate</t>
+  </si>
+  <si>
+    <t>caught</t>
+  </si>
+  <si>
+    <t>spoke</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>neighbor</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>sight</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t>chief</t>
+  </si>
+  <si>
+    <t>colony</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>arrange</t>
+  </si>
+  <si>
+    <t>invent</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>quart</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>magnet</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>fig</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t>shore</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>chord</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>slave</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>populate</t>
+  </si>
+  <si>
+    <t>chick</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>meant</t>
+  </si>
+  <si>
+    <t>quotient</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>knock</t>
+  </si>
+  <si>
+    <t>lend</t>
+  </si>
+  <si>
+    <t>stare</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>yell</t>
+  </si>
+  <si>
+    <t>spark</t>
   </si>
 </sst>
 </file>
@@ -74267,8 +74694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AC0207-518E-48AB-8F20-B65106DCAA7A}">
   <dimension ref="B2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B48"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74804,4 +75231,5917 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45346D0D-7260-43BC-BA8C-E0F48180BBE0}">
+  <dimension ref="A1:A1179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1153" workbookViewId="0">
+      <selection activeCell="A1157" sqref="A1157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>5086</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>5162</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>